--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271276.6589919069</v>
+        <v>-210243.2600849586</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890404</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484452</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8907432.244756807</v>
+        <v>8911806.600138253</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>309.860855332061</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.30706734560965</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -820,7 +820,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>160.439414957346</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>124.4124267272028</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>105.3868360001767</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,13 +908,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>55.35784756269961</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>20.73696989209178</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>218.1707576327299</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>301.8133921900198</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1291,7 +1291,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>2.797169355876108</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>10.04027365719966</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>46.83433121433435</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>365.5011464482766</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>86.48613679462069</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>361.6148912639285</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>89.78027874888002</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>173.008255306012</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>68.97806888533786</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2002,10 +2002,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>35.75633396116356</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>394.0226158731418</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>30.23468302351728</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>43.48898701015861</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>273.4286173226616</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018972</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>76.02431517303515</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225797</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>46.16917954999367</v>
       </c>
       <c r="H31" t="n">
-        <v>85.55329631630718</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3010,13 +3010,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>22.56919457453657</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925398</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043308</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>212.5023562141209</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724697</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790333</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>44.12393505838726</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>126.8145494864312</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432385</v>
+        <v>76.08474665297338</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>9.515040001583802</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828707</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790333</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063843</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.1474913215093</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E43" t="n">
-        <v>151.824713373023</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>126.8145494864312</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297338</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>9.515040001583802</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>37.55367720287838</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999607</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083129</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972018</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131897</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.9001522147863</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828706</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311178</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790333</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755937</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760552</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854137</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.118296962979</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063844</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832451</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516992</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>50.74081658950205</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903945</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316721</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>163.2513804177633</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443326</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>126.8145494864312</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297338</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934455</v>
+        <v>9.515040001583802</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.9603519348853</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.7320488772313</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593277</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681758</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894734</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398236</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989348</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>1671.959615828829</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497384</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D2" t="n">
-        <v>376.668772364587</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9344315632862</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.523902298118</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C4" t="n">
-        <v>847.9621907813431</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2522.973887230534</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>2277.094440808989</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>1998.661440062095</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>1711.705931932525</v>
       </c>
       <c r="W4" t="n">
-        <v>1265.915656964706</v>
+        <v>1439.679527518817</v>
       </c>
       <c r="X4" t="n">
-        <v>1020.523902298118</v>
+        <v>1194.287772852229</v>
       </c>
       <c r="Y4" t="n">
-        <v>1020.523902298118</v>
+        <v>966.8681021663376</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.2117929153466</v>
+        <v>1013.503637065321</v>
       </c>
       <c r="C7" t="n">
-        <v>819.6500813985715</v>
+        <v>840.9419255485456</v>
       </c>
       <c r="D7" t="n">
-        <v>653.7720886000942</v>
+        <v>675.0639327500683</v>
       </c>
       <c r="E7" t="n">
-        <v>484.0140848508315</v>
+        <v>505.3059290008055</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>328.5988749625617</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>163.0075999883894</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>1432.7419264702</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.2117929153466</v>
+        <v>1205.322255784308</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.067234915111</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C8" t="n">
-        <v>1426.924762098534</v>
+        <v>829.3599495989887</v>
       </c>
       <c r="D8" t="n">
-        <v>991.0149772729787</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E8" t="n">
-        <v>557.2402324312739</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>336.8657297719507</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>336.8657297719507</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>489.6704234713148</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1080.398166759006</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1671.125910046698</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2217.624696005293</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.77876075835</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2386.77876075835</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2166.711533631388</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1907.489230948405</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1907.489230948405</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.674180399842</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1891.572121019557</v>
+        <v>1294.007308520012</v>
       </c>
       <c r="Y8" t="n">
-        <v>1887.326401359615</v>
+        <v>1289.761588860069</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.9073202064598</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431021</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896553</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.240155516609</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8563171327706</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.47122739895451</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>462.335876679869</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.06361996756</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599636</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.34125547296</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534928</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681221</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070021</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.2112212862229</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>952.9121053805986</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>780.3503938638236</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D10" t="n">
-        <v>614.4724010653463</v>
+        <v>575.5992398531354</v>
       </c>
       <c r="E10" t="n">
-        <v>444.7143973160835</v>
+        <v>405.8412361038726</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8889737242895</v>
+        <v>229.1341820656288</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2976987501171</v>
+        <v>63.5429070914565</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3955244404917</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>47.73557521516699</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.3152603798568</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>409.0737149509924</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>827.2835967189535</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1286.767463899866</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1729.026267057511</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2148.695516283292</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.585985894017</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.77876075835</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2386.77876075835</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2227.537392056346</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2227.537392056346</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1949.104391309451</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1662.148883179882</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1390.122478766173</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1144.730724099586</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1144.730724099586</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2132.36700728592</v>
+        <v>2519.123007273348</v>
       </c>
       <c r="C11" t="n">
-        <v>1694.224534469344</v>
+        <v>2080.980534456772</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.917129202339</v>
+        <v>1645.070749631216</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.142384360634</v>
+        <v>1211.296004789511</v>
       </c>
       <c r="F11" t="n">
-        <v>785.2749547698421</v>
+        <v>783.4285751987193</v>
       </c>
       <c r="G11" t="n">
-        <v>383.877123393106</v>
+        <v>382.0307438219832</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632224</v>
+        <v>92.90058926519941</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519973</v>
       </c>
       <c r="J11" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519973</v>
       </c>
       <c r="K11" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519973</v>
       </c>
       <c r="L11" t="n">
-        <v>889.7674289810668</v>
+        <v>92.90058926519973</v>
       </c>
       <c r="M11" t="n">
-        <v>2046.815264191618</v>
+        <v>1164.310152461242</v>
       </c>
       <c r="N11" t="n">
-        <v>3172.546247628065</v>
+        <v>2290.041135897689</v>
       </c>
       <c r="O11" t="n">
-        <v>3172.546247628065</v>
+        <v>3270.220802467995</v>
       </c>
       <c r="P11" t="n">
-        <v>4000.85612246146</v>
+        <v>4098.530677301392</v>
       </c>
       <c r="Q11" t="n">
-        <v>4547.354908420056</v>
+        <v>4645.029463259986</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.508973173112</v>
+        <v>4645.029463259986</v>
       </c>
       <c r="S11" t="n">
-        <v>4632.857099356949</v>
+        <v>4561.377589443823</v>
       </c>
       <c r="T11" t="n">
-        <v>4412.789872229987</v>
+        <v>4341.310362316862</v>
       </c>
       <c r="U11" t="n">
-        <v>4153.567569547004</v>
+        <v>4082.088059633878</v>
       </c>
       <c r="V11" t="n">
-        <v>3790.95061948083</v>
+        <v>3719.471109567705</v>
       </c>
       <c r="W11" t="n">
-        <v>3386.095164891864</v>
+        <v>3314.615654978738</v>
       </c>
       <c r="X11" t="n">
-        <v>2966.952701471175</v>
+        <v>3314.615654978738</v>
       </c>
       <c r="Y11" t="n">
-        <v>2558.666577770828</v>
+        <v>2945.422577758256</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.501924454755</v>
+        <v>599.0723342564925</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913973</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>397.525584239688</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>303.4051695666417</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>134.6362414489872</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519973</v>
       </c>
       <c r="I12" t="n">
-        <v>94.33017946346224</v>
+        <v>92.93678898100367</v>
       </c>
       <c r="J12" t="n">
-        <v>94.33017946346224</v>
+        <v>417.495113947216</v>
       </c>
       <c r="K12" t="n">
-        <v>94.33017946346224</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="L12" t="n">
-        <v>94.33017946346224</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="M12" t="n">
-        <v>94.33017946346224</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>94.33017946346224</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>279.9350577366578</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1640.397162847931</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552974</v>
+        <v>846.8620145570349</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345181</v>
+        <v>720.3762353362556</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.8262165403935</v>
+        <v>780.9766053881839</v>
       </c>
       <c r="C13" t="n">
-        <v>772.2645050236184</v>
+        <v>693.6168712522034</v>
       </c>
       <c r="D13" t="n">
-        <v>606.3865122251411</v>
+        <v>693.6168712522034</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6285084758784</v>
+        <v>523.8588675029407</v>
       </c>
       <c r="F13" t="n">
-        <v>259.9214544376346</v>
+        <v>347.1518134646969</v>
       </c>
       <c r="G13" t="n">
-        <v>94.33017946346224</v>
+        <v>181.5605384905244</v>
       </c>
       <c r="H13" t="n">
-        <v>94.33017946346224</v>
+        <v>181.5605384905244</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519973</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>179.4802744298896</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>454.2387290010252</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>872.4486107689863</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531588</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.79701450193</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.989789366262</v>
+        <v>2688.142377873371</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.750620323577</v>
+        <v>2528.901009171368</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.871173902032</v>
+        <v>2283.021562749823</v>
       </c>
       <c r="U13" t="n">
-        <v>2168.438173155138</v>
+        <v>2004.588562002928</v>
       </c>
       <c r="V13" t="n">
-        <v>1881.482665025568</v>
+        <v>1717.633053873358</v>
       </c>
       <c r="W13" t="n">
-        <v>1609.45626061186</v>
+        <v>1445.60664945965</v>
       </c>
       <c r="X13" t="n">
-        <v>1364.064505945272</v>
+        <v>1200.214894793063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.644835259381</v>
+        <v>972.795224107171</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.969386844471</v>
+        <v>2450.046730890712</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.826914027894</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.917129202339</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E14" t="n">
-        <v>1213.142384360634</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F14" t="n">
-        <v>785.274954769842</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G14" t="n">
-        <v>383.8771233931059</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H14" t="n">
-        <v>94.74696883632224</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="K14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="L14" t="n">
-        <v>94.33017946346224</v>
+        <v>176.3543236416477</v>
       </c>
       <c r="M14" t="n">
-        <v>1066.635597621311</v>
+        <v>1333.402158852198</v>
       </c>
       <c r="N14" t="n">
-        <v>2192.366581057759</v>
+        <v>2459.133142288646</v>
       </c>
       <c r="O14" t="n">
-        <v>3172.546247628065</v>
+        <v>3439.312808858952</v>
       </c>
       <c r="P14" t="n">
-        <v>4000.85612246146</v>
+        <v>4267.622683692348</v>
       </c>
       <c r="Q14" t="n">
-        <v>4547.354908420056</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S14" t="n">
-        <v>4632.857099356949</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T14" t="n">
-        <v>4542.169949105555</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="U14" t="n">
-        <v>4542.169949105555</v>
+        <v>4471.247293151796</v>
       </c>
       <c r="V14" t="n">
-        <v>4179.552999039382</v>
+        <v>4108.630343085622</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.697544450415</v>
+        <v>3703.774888496656</v>
       </c>
       <c r="X14" t="n">
-        <v>3355.555081029725</v>
+        <v>3284.632425075967</v>
       </c>
       <c r="Y14" t="n">
-        <v>2947.268957329379</v>
+        <v>2876.34630137562</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I15" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J15" t="n">
-        <v>94.33017946346224</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K15" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L15" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M15" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N15" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O15" t="n">
-        <v>279.9350577366578</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.8262165403934</v>
+        <v>946.7784664699502</v>
       </c>
       <c r="C16" t="n">
-        <v>772.2645050236184</v>
+        <v>774.216754953175</v>
       </c>
       <c r="D16" t="n">
-        <v>606.3865122251411</v>
+        <v>608.3387621546979</v>
       </c>
       <c r="E16" t="n">
-        <v>436.6285084758784</v>
+        <v>438.580758405435</v>
       </c>
       <c r="F16" t="n">
-        <v>259.9214544376346</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G16" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="H16" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I16" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2692.750620323577</v>
+        <v>2694.702870253134</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.871173902032</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U16" t="n">
-        <v>2168.438173155138</v>
+        <v>2170.390423084695</v>
       </c>
       <c r="V16" t="n">
-        <v>1881.482665025568</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.45626061186</v>
+        <v>1611.408510541417</v>
       </c>
       <c r="X16" t="n">
-        <v>1364.064505945272</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y16" t="n">
-        <v>1136.64483525938</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2520.552597471612</v>
+        <v>2522.921636774028</v>
       </c>
       <c r="C17" t="n">
-        <v>2082.410124655035</v>
+        <v>2084.779163957451</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.500339829479</v>
+        <v>1648.869379131896</v>
       </c>
       <c r="E17" t="n">
-        <v>1212.725594987774</v>
+        <v>1215.094634290191</v>
       </c>
       <c r="F17" t="n">
-        <v>784.8581653969821</v>
+        <v>787.227204699399</v>
       </c>
       <c r="G17" t="n">
-        <v>383.460334020246</v>
+        <v>385.8293733226628</v>
       </c>
       <c r="H17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="K17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="L17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="M17" t="n">
-        <v>1066.635597621311</v>
+        <v>1253.33026460357</v>
       </c>
       <c r="N17" t="n">
-        <v>2192.366581057759</v>
+        <v>2379.061248040016</v>
       </c>
       <c r="O17" t="n">
-        <v>3172.546247628065</v>
+        <v>3359.240914610323</v>
       </c>
       <c r="P17" t="n">
-        <v>4000.85612246146</v>
+        <v>4098.468618939291</v>
       </c>
       <c r="Q17" t="n">
-        <v>4547.354908420056</v>
+        <v>4644.967404897886</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S17" t="n">
-        <v>4716.508973173112</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T17" t="n">
-        <v>4716.508973173112</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U17" t="n">
-        <v>4541.753159732696</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V17" t="n">
-        <v>4179.136209666523</v>
+        <v>4181.505248968938</v>
       </c>
       <c r="W17" t="n">
-        <v>3774.280755077556</v>
+        <v>3776.649794379971</v>
       </c>
       <c r="X17" t="n">
-        <v>3355.138291656867</v>
+        <v>3357.507330959282</v>
       </c>
       <c r="Y17" t="n">
-        <v>2946.85216795652</v>
+        <v>2949.221207258935</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="K18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="L18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="M18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="N18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="O18" t="n">
-        <v>279.9350577366578</v>
+        <v>281.8873076662142</v>
       </c>
       <c r="P18" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>944.8262165403937</v>
+        <v>784.3584455160034</v>
       </c>
       <c r="C19" t="n">
-        <v>772.2645050236185</v>
+        <v>748.2409364643231</v>
       </c>
       <c r="D19" t="n">
-        <v>606.3865122251412</v>
+        <v>748.2409364643231</v>
       </c>
       <c r="E19" t="n">
-        <v>436.6285084758784</v>
+        <v>578.4829327150603</v>
       </c>
       <c r="F19" t="n">
-        <v>259.9214544376346</v>
+        <v>401.7758786768165</v>
       </c>
       <c r="G19" t="n">
-        <v>94.33017946346224</v>
+        <v>236.1846037026443</v>
       </c>
       <c r="H19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2710.989789366262</v>
+        <v>2691.52421800119</v>
       </c>
       <c r="S19" t="n">
-        <v>2692.750620323578</v>
+        <v>2532.282849299187</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.871173902033</v>
+        <v>2286.403402877643</v>
       </c>
       <c r="U19" t="n">
-        <v>2168.438173155138</v>
+        <v>2007.970402130748</v>
       </c>
       <c r="V19" t="n">
-        <v>1881.482665025569</v>
+        <v>1721.014894001178</v>
       </c>
       <c r="W19" t="n">
-        <v>1609.45626061186</v>
+        <v>1448.98848958747</v>
       </c>
       <c r="X19" t="n">
-        <v>1364.064505945273</v>
+        <v>1203.596734920882</v>
       </c>
       <c r="Y19" t="n">
-        <v>1136.644835259381</v>
+        <v>976.1770642349904</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2520.969386844472</v>
+        <v>2229.979503763751</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.826914027895</v>
+        <v>1791.837030947174</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.917129202339</v>
+        <v>1355.927246121619</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.142384360634</v>
+        <v>922.1525012799138</v>
       </c>
       <c r="F20" t="n">
-        <v>785.2749547698421</v>
+        <v>494.2850716891216</v>
       </c>
       <c r="G20" t="n">
-        <v>383.877123393106</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="H20" t="n">
-        <v>94.74696883632224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J20" t="n">
-        <v>529.5848669163801</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="K20" t="n">
-        <v>1363.935158874558</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="L20" t="n">
-        <v>2361.520645810815</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="M20" t="n">
-        <v>2361.520645810815</v>
+        <v>1253.33026460357</v>
       </c>
       <c r="N20" t="n">
-        <v>2361.520645810815</v>
+        <v>2379.061248040016</v>
       </c>
       <c r="O20" t="n">
-        <v>3341.700312381121</v>
+        <v>3359.240914610323</v>
       </c>
       <c r="P20" t="n">
-        <v>4170.010187214517</v>
+        <v>4187.550789443719</v>
       </c>
       <c r="Q20" t="n">
-        <v>4716.508973173112</v>
+        <v>4644.967404897886</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S20" t="n">
-        <v>4632.857099356949</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T20" t="n">
-        <v>4412.789872229988</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U20" t="n">
-        <v>4153.567569547004</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V20" t="n">
-        <v>3790.950619480831</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W20" t="n">
-        <v>3386.095164891864</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X20" t="n">
-        <v>3355.555081029726</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y20" t="n">
-        <v>2947.268957329379</v>
+        <v>2656.279074248659</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913973</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J21" t="n">
-        <v>94.33017946346224</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K21" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L21" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M21" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N21" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O21" t="n">
-        <v>279.9350577366578</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552974</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>963.0653855830775</v>
+        <v>946.7784664699503</v>
       </c>
       <c r="C22" t="n">
-        <v>790.5036740663024</v>
+        <v>774.2167549531753</v>
       </c>
       <c r="D22" t="n">
-        <v>624.6256812678251</v>
+        <v>608.3387621546979</v>
       </c>
       <c r="E22" t="n">
-        <v>454.8676775185624</v>
+        <v>438.580758405435</v>
       </c>
       <c r="F22" t="n">
-        <v>278.1606234803186</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G22" t="n">
-        <v>234.2323537730877</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="H22" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I22" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2710.989789366262</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T22" t="n">
-        <v>2465.110342944717</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U22" t="n">
-        <v>2186.677342197822</v>
+        <v>2029.388223425375</v>
       </c>
       <c r="V22" t="n">
-        <v>1899.721834068252</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W22" t="n">
-        <v>1627.695429654544</v>
+        <v>1611.408510541417</v>
       </c>
       <c r="X22" t="n">
-        <v>1382.303674987956</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y22" t="n">
-        <v>1154.884004302065</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5990,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.77365348828</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698831</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>920.0973401405613</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2037.609112501888</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1750.653604372319</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.62719995861</v>
+        <v>1757.289095728802</v>
       </c>
       <c r="X25" t="n">
-        <v>1233.235445292023</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903956</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736205</v>
+        <v>831.0115848906042</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751432</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258804</v>
+        <v>584.4613435928211</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876367</v>
+        <v>407.7542895545773</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134644</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795275</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1039.174348374284</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C31" t="n">
-        <v>866.6126368575086</v>
+        <v>889.8015492906972</v>
       </c>
       <c r="D31" t="n">
-        <v>700.7346440590313</v>
+        <v>723.9235564922199</v>
       </c>
       <c r="E31" t="n">
-        <v>530.9766403097686</v>
+        <v>554.1655527429571</v>
       </c>
       <c r="F31" t="n">
-        <v>354.2695862715249</v>
+        <v>377.4584987047133</v>
       </c>
       <c r="G31" t="n">
-        <v>188.6783112973525</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y31" t="n">
-        <v>1230.992967093271</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="32">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878949</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2674.705462642043</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2428.826016220498</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2150.393015473603</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.437507344034</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581786</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581786</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581786</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M35" t="n">
-        <v>1254.614538886369</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N35" t="n">
-        <v>2380.345522322816</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O35" t="n">
-        <v>3360.525188893122</v>
+        <v>3800.474012941002</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079242</v>
+        <v>4628.783887774398</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673522</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403415</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750117</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581786</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581786</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581786</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581786</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581786</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581786</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716796</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581788</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758677</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.3347848856841</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2099.150790389303</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1812.195282259733</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1540.168877846025</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1294.777123179437</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1067.357452493545</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206712</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803011</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390332</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961503</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835866</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197266</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581786</v>
+        <v>137.0287963856751</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239093</v>
+        <v>1294.076631596226</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4065.618332567251</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574027</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566214</v>
+        <v>3265.23375411335</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278743</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581786</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581786</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581786</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581786</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612122</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936668</v>
+        <v>825.033738922314</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080656</v>
+        <v>780.4641075502057</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716789</v>
+        <v>622.5127735788196</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463112</v>
+        <v>457.6123893184527</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850151</v>
+        <v>303.8277841221571</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882657</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773801</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355591</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2150.367388386573</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.21855003488</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1165.800729602322</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581786</v>
+        <v>137.0287963856751</v>
       </c>
       <c r="M41" t="n">
-        <v>1254.614538886369</v>
+        <v>1294.076631596226</v>
       </c>
       <c r="N41" t="n">
-        <v>2380.345522322816</v>
+        <v>2419.807615032673</v>
       </c>
       <c r="O41" t="n">
-        <v>3360.525188893122</v>
+        <v>3399.987281602979</v>
       </c>
       <c r="P41" t="n">
-        <v>4188.835063726518</v>
+        <v>4228.297156436375</v>
       </c>
       <c r="Q41" t="n">
-        <v>4735.333849685113</v>
+        <v>4774.79594239497</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.23375411335</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>284.483878416156</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1095.290472309704</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>934.5354305708059</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080665</v>
+        <v>780.4641075502054</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>622.5127735788194</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>457.6123893184526</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>303.8277841221571</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773801</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2760.56818764775</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2526.495411004083</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2259.869080035065</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1984.720241683372</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1724.50050704754</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1490.915422158829</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1275.302421250815</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483849</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445149</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218674</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>306.1828611387315</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.614538886369</v>
+        <v>1463.230696349282</v>
       </c>
       <c r="N44" t="n">
-        <v>2380.345522322816</v>
+        <v>2588.961679785729</v>
       </c>
       <c r="O44" t="n">
-        <v>3360.525188893122</v>
+        <v>3569.141346356036</v>
       </c>
       <c r="P44" t="n">
-        <v>4188.835063726518</v>
+        <v>4397.451221189432</v>
       </c>
       <c r="Q44" t="n">
-        <v>4735.333849685113</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148026</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.10480310974</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760655</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855549</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567252</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756162</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.23375411335</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.75430019088</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342534</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174489</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444026</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605642</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267481</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>284.483878416156</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347957</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140165</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612121</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>934.5354305708059</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>780.4641075502054</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>622.5127735788195</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>457.6123893184525</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>303.827784122157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904084</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296052</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569474</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>483.3605739773801</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>913.1421727946382</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024848</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1838.02827723179</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506868</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526507</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440136</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923385</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999258</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.99371935559</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386572</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034879</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399048</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510337</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602322</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,16 +8380,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>298.8178948332412</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>446.3988366223716</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.6946901895874</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895874</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>418.7881832976789</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>596.6946901895874</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8626,7 +8626,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>70.59643395022704</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>803.4719692097017</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.231882016204</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>80.88070126124131</v>
       </c>
       <c r="M14" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,7 +9179,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>746.6946508373421</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.662108016421</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9419,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>462.0369853072398</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9650,13 +9650,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>274.84172772886</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>810.2597416021417</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>489.1496219844275</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10826,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.53514771991372</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437652</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>38.53514771991372</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>144.4457920260411</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.3978393896677</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>144.4457920260402</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>384.7163557629656</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>38.70211601506651</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84.34995760698662</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>72.1461568244822</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>128.0862761068117</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>83.62182435014125</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>290.0127116801739</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>135.0797604404437</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.361237189826966</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>384.7163557629651</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2.220053416764131</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.0953302292548</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>88.19489769745738</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>117.7661826744369</v>
       </c>
       <c r="H31" t="n">
-        <v>52.94985625022204</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>135.0797604404467</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>63.14631452530483</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>108.4066747320072</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>108.4066747320069</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>108.4066747320072</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731945.3892724648</v>
+        <v>723803.0738094799</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731945.389272465</v>
+        <v>743064.5441242254</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731945.3892724648</v>
+        <v>743064.5441242255</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731945.3892724648</v>
+        <v>743064.5441242254</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777114.9366025947</v>
+        <v>777114.9366025946</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>790817.2968383526</v>
+        <v>777114.9366025947</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>790817.2968383526</v>
+        <v>786979.7005528396</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>790817.2968383526</v>
+        <v>786979.7005528396</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>790817.2968383526</v>
+        <v>786979.7005528396</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>147440.5129698624</v>
       </c>
       <c r="C2" t="n">
-        <v>147440.5129698623</v>
+        <v>147440.5129698624</v>
       </c>
       <c r="D2" t="n">
-        <v>147440.5129698623</v>
+        <v>147440.5129698624</v>
       </c>
       <c r="E2" t="n">
-        <v>136464.3946101206</v>
+        <v>134946.3357949877</v>
       </c>
       <c r="F2" t="n">
-        <v>136464.3946101206</v>
+        <v>138537.4573790929</v>
       </c>
       <c r="G2" t="n">
-        <v>136464.3946101205</v>
+        <v>138537.4573790929</v>
       </c>
       <c r="H2" t="n">
-        <v>136464.3946101206</v>
+        <v>138537.4573790928</v>
       </c>
       <c r="I2" t="n">
         <v>144885.8356377719</v>
@@ -26344,16 +26344,16 @@
         <v>144885.8356377719</v>
       </c>
       <c r="M2" t="n">
-        <v>147440.5129698623</v>
+        <v>144885.8356377719</v>
       </c>
       <c r="N2" t="n">
-        <v>147440.5129698623</v>
+        <v>146725.028916631</v>
       </c>
       <c r="O2" t="n">
-        <v>147440.5129698624</v>
+        <v>146725.0289166311</v>
       </c>
       <c r="P2" t="n">
-        <v>147440.5129698624</v>
+        <v>146725.028916631</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212151</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405938</v>
+        <v>147420.5464117494</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12112.31405579375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.61565678307</v>
+        <v>19872.3124878128</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.59295915212</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345144</v>
+        <v>123042.521043056</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9350.882464078426</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>129712.5371811804</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>759.4645886419044</v>
+        <v>751.0161437793238</v>
       </c>
       <c r="F4" t="n">
-        <v>759.4645886419041</v>
+        <v>771.0017941346962</v>
       </c>
       <c r="G4" t="n">
-        <v>759.4645886419041</v>
+        <v>771.0017941346962</v>
       </c>
       <c r="H4" t="n">
-        <v>759.4645886419044</v>
+        <v>771.0017941346961</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26448,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>16466.62778780231</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780231</v>
+        <v>12085.91225991126</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780236</v>
+        <v>12085.91225991126</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780236</v>
+        <v>12085.91225991126</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.6371635269</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223131</v>
+        <v>70604.44784155178</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099076</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>76130.68928099076</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099076</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-223343.6690968297</v>
+        <v>-263976.1163941908</v>
       </c>
       <c r="C6" t="n">
-        <v>-81152.36843711982</v>
+        <v>-40276.41781014595</v>
       </c>
       <c r="D6" t="n">
-        <v>-105730.9107669664</v>
+        <v>-40276.41781014591</v>
       </c>
       <c r="E6" t="n">
-        <v>-109887.5532113464</v>
+        <v>-83943.25803095521</v>
       </c>
       <c r="F6" t="n">
-        <v>64013.99362924736</v>
+        <v>52398.5583214631</v>
       </c>
       <c r="G6" t="n">
-        <v>64013.99362924733</v>
+        <v>64510.87237725685</v>
       </c>
       <c r="H6" t="n">
-        <v>64013.99362924739</v>
+        <v>64510.87237725682</v>
       </c>
       <c r="I6" t="n">
-        <v>39999.64898441372</v>
+        <v>46465.72781400131</v>
       </c>
       <c r="J6" t="n">
-        <v>-44653.2007037934</v>
+        <v>-108313.308415892</v>
       </c>
       <c r="K6" t="n">
-        <v>66361.26464119679</v>
+        <v>66338.04030181415</v>
       </c>
       <c r="L6" t="n">
-        <v>22728.67168204463</v>
+        <v>66338.04030181415</v>
       </c>
       <c r="M6" t="n">
-        <v>-88052.34957854415</v>
+        <v>-56704.48074124188</v>
       </c>
       <c r="N6" t="n">
-        <v>55458.27045597028</v>
+        <v>49151.04051116661</v>
       </c>
       <c r="O6" t="n">
-        <v>55458.27045597034</v>
+        <v>58501.92297524514</v>
       </c>
       <c r="P6" t="n">
-        <v>55458.27045597037</v>
+        <v>58501.92297524508</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.6946901895874</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1161.257365814997</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787007</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.398832669483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4325531036907</v>
+        <v>493.7421592071396</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>42.27300159773893</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146726</v>
+        <v>74.73013597200975</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.398832669483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666686</v>
+        <v>493.7421592071396</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.398832669483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.4325531036907</v>
+        <v>493.7421592071396</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>42.27300159773893</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>113.7278999628233</v>
-      </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>193.3230123105436</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.779797913146524</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.2365282877805</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>328.3742120882342</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D5" t="n">
-        <v>104.2627093945165</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>119.5821359351617</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>117.7661826744374</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>205.4179976621544</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>113.1376465964626</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>172.1428141419852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>128.4628789093296</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874617</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874623</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009812</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009803</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>205.1467494379689</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>298.8178948332412</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>446.3988366223716</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.6946901895874</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895874</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,10 +35264,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>418.7881832976789</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>596.6946901895874</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>70.59643395022704</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,16 +35413,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>803.4719692097017</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>1082.231882016204</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35650,10 +35650,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>80.88070126124131</v>
       </c>
       <c r="M14" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35890,16 +35890,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>982.1266850079285</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>746.6946508373421</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P18" t="n">
         <v>828.0031984638366</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.662108016421</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36139,10 +36139,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>462.0369853072398</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36294,7 +36294,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>274.84172772886</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>810.2597416021417</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>489.1496219844275</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>-2.745154058942301e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209001</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.53514771991372</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437652</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.1428305191787</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>38.53514771991372</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>144.4457920260411</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.1428305191787</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881395</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>209.3978393896677</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>144.4457920260402</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>99.1428305191787</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348442</v>
+        <v>289.2223955761946</v>
       </c>
       <c r="L46" t="n">
-        <v>438.669934346789</v>
+        <v>434.1228270881396</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>475.8137214446567</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756987</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>435.5969356313922</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966049</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622518</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
